--- a/CORTES DE CAJA/2026/1) ENERO/LISTA DE LAS VENTAS SEMANA 1 DE ENERO-26.xlsx
+++ b/CORTES DE CAJA/2026/1) ENERO/LISTA DE LAS VENTAS SEMANA 1 DE ENERO-26.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F997C9B-3F1A-42A4-9973-898FD9548AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D9FD6-76E0-49F5-83C2-84672F68832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1175,6 +1175,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1214,26 +1235,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1243,9 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1839,23 +1839,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1868,14 +1868,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>1664.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -1906,19 +1906,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -1940,21 +1940,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>432</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -1976,19 +1976,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42.5</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -2010,19 +2010,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2044,19 +2044,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>61.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2078,19 +2078,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>189</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2112,19 +2112,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2146,19 +2146,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2180,19 +2180,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2211,19 +2211,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>150</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2245,19 +2245,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2276,17 +2276,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2305,17 +2305,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2334,17 +2334,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>270</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2363,17 +2363,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2392,12 +2392,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>93</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -2412,12 +2412,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -2432,12 +2432,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -2452,12 +2452,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -2486,14 +2486,14 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -2508,12 +2508,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -2528,18 +2528,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="31"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -2554,16 +2554,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23">
+      <c r="N27" s="27"/>
+      <c r="O27" s="30">
         <v>1559</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -2578,12 +2578,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2598,16 +2598,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="23">
+      <c r="N29" s="27"/>
+      <c r="O29" s="30">
         <v>5690</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2622,12 +2622,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2642,12 +2642,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2662,12 +2662,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2682,12 +2682,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2702,12 +2702,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2722,12 +2722,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2742,12 +2742,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2762,12 +2762,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2782,12 +2782,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2802,12 +2802,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2822,12 +2822,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2842,12 +2842,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2862,12 +2862,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="30"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2882,12 +2882,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2902,12 +2902,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="30"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2922,12 +2922,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2942,12 +2942,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -2962,12 +2962,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -2982,12 +2982,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -3002,12 +3002,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -3022,12 +3022,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -3042,12 +3042,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -3062,12 +3062,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3786,19 +3786,33 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3807,33 +3821,19 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="13" priority="1">
@@ -3878,23 +3878,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -3907,14 +3907,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>1813</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -3945,19 +3945,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -3976,21 +3976,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>39</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4009,19 +4009,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4040,19 +4040,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>12</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4071,19 +4071,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>93</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4102,19 +4102,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>150</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4133,19 +4133,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>150</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4164,19 +4164,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>182</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4195,19 +4195,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>88</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4229,19 +4229,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4263,19 +4263,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>189</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -4294,17 +4294,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -4326,17 +4326,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>207</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -4355,17 +4355,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>284</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -4384,17 +4384,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -4404,12 +4404,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -4424,12 +4424,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -4444,12 +4444,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -4464,12 +4464,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -4498,14 +4498,14 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -4520,12 +4520,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -4546,12 +4546,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -4572,10 +4572,10 @@
       <c r="N27" s="15">
         <v>7225</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -4592,10 +4592,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4612,10 +4612,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4632,10 +4632,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4652,10 +4652,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4672,10 +4672,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4692,10 +4692,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4712,10 +4712,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4732,10 +4732,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4752,10 +4752,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4772,10 +4772,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4792,10 +4792,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4812,10 +4812,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4832,10 +4832,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4852,10 +4852,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -4872,10 +4872,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -4892,10 +4892,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -4912,10 +4912,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5745,32 +5745,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="11" priority="1">
@@ -5813,23 +5813,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -5842,14 +5842,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>4037.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -5880,19 +5880,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>35</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -5911,21 +5911,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>28</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C6">
         <f>IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -5944,19 +5944,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -5975,19 +5975,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="0">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -6009,19 +6009,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -6043,19 +6043,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>200</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -6077,19 +6077,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -6111,19 +6111,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -6145,19 +6145,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>84</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -6179,19 +6179,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>144</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -6213,19 +6213,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>540</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -6244,17 +6244,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>250</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -6276,17 +6276,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -6308,17 +6308,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -6340,17 +6340,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -6372,12 +6372,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25.5</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -6404,12 +6404,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -6433,12 +6433,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>645</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -6462,12 +6462,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -6514,14 +6514,14 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>390</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -6545,12 +6545,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -6580,12 +6580,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -6615,10 +6615,10 @@
       <c r="N27" s="15">
         <v>650</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -6647,10 +6647,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6679,10 +6679,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6708,10 +6708,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6740,10 +6740,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6772,10 +6772,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6801,10 +6801,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6830,10 +6830,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6859,10 +6859,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6888,10 +6888,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6917,10 +6917,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6946,10 +6946,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6975,10 +6975,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6995,10 +6995,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -7015,10 +7015,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -7035,10 +7035,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -7055,10 +7055,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -7075,10 +7075,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7908,32 +7908,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -7976,23 +7976,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -8005,14 +8005,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>1181</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -8043,17 +8043,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -8072,21 +8072,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -8105,19 +8105,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>625</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -8136,19 +8136,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>400</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -8167,19 +8167,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -8198,19 +8198,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -8229,19 +8229,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>41</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -8251,19 +8251,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -8273,19 +8273,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -8295,19 +8295,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -8317,19 +8317,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -8339,17 +8339,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -8359,17 +8359,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -8379,17 +8379,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -8399,17 +8399,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -8419,12 +8419,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -8439,12 +8439,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -8459,12 +8459,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -8479,12 +8479,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -8513,14 +8513,14 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -8535,12 +8535,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -8561,12 +8561,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -8583,10 +8583,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -8603,10 +8603,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -8623,10 +8623,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -8643,10 +8643,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -8663,10 +8663,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8683,10 +8683,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8703,10 +8703,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8723,10 +8723,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8743,10 +8743,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8763,10 +8763,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8783,10 +8783,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8803,10 +8803,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8823,10 +8823,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8843,10 +8843,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8863,10 +8863,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8883,10 +8883,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8903,10 +8903,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -8923,10 +8923,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9756,32 +9756,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -9825,23 +9825,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -9854,14 +9854,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>3122</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -9892,19 +9892,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>27</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -9926,21 +9926,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>304</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -9962,19 +9962,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>304</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -9996,19 +9996,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>11</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -10030,19 +10030,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10064,19 +10064,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>64</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10098,19 +10098,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>29</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10129,19 +10129,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10163,19 +10163,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10197,19 +10197,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>18</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10231,19 +10231,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10265,17 +10265,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10294,17 +10294,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>327</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10323,17 +10323,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10352,17 +10352,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -10381,12 +10381,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -10413,12 +10413,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>304</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -10445,12 +10445,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>126</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -10477,12 +10477,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -10535,14 +10535,14 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -10566,12 +10566,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>200</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -10601,12 +10601,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -10636,12 +10636,12 @@
       <c r="N27" s="15">
         <v>1559</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -10674,12 +10674,12 @@
       <c r="N28" s="15">
         <v>5690</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -10709,12 +10709,12 @@
       <c r="N29" s="15">
         <v>7225</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -10744,12 +10744,12 @@
       <c r="N30" s="15">
         <v>650</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -10782,12 +10782,12 @@
       <c r="N31" s="15">
         <v>5460</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10808,12 +10808,12 @@
       <c r="N32" s="15">
         <v>1500</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10834,12 +10834,12 @@
       <c r="N33" s="15">
         <v>22084</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10856,10 +10856,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10876,10 +10876,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10896,10 +10896,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10916,10 +10916,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10936,10 +10936,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10956,10 +10956,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10976,10 +10976,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -10996,10 +10996,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -11016,10 +11016,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -11036,10 +11036,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -11056,10 +11056,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11889,32 +11889,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -11938,7 +11938,7 @@
   <dimension ref="B2:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11957,23 +11957,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -11986,14 +11986,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>3530.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -12024,19 +12024,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -12055,21 +12055,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -12088,19 +12088,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -12119,19 +12119,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -12153,19 +12153,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>78.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -12187,19 +12187,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -12221,19 +12221,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>252</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12255,19 +12255,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>659</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12289,19 +12289,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12320,19 +12320,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>380</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12351,19 +12351,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12382,17 +12382,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>320</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12411,17 +12411,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>150</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12440,17 +12440,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12469,17 +12469,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12498,12 +12498,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -12527,12 +12527,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>1150</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -12547,12 +12547,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -12567,12 +12567,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -12601,14 +12601,14 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -12623,12 +12623,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -12649,12 +12649,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -12675,10 +12675,10 @@
       <c r="N27" s="15">
         <v>66</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -12695,10 +12695,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -12715,10 +12715,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -12735,10 +12735,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -12755,10 +12755,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12775,10 +12775,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12795,10 +12795,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12815,10 +12815,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12835,10 +12835,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12855,10 +12855,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12875,10 +12875,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12895,10 +12895,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12915,10 +12915,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12935,10 +12935,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12955,10 +12955,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -12975,10 +12975,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -12995,10 +12995,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -13015,10 +13015,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13848,32 +13848,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -13916,23 +13916,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -13945,14 +13945,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -13983,12 +13983,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -14003,21 +14003,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -14027,19 +14027,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -14049,19 +14049,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -14071,19 +14071,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -14093,19 +14093,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -14115,19 +14115,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -14137,19 +14137,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -14159,19 +14159,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -14181,19 +14181,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -14203,19 +14203,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -14225,17 +14225,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -14245,17 +14245,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -14265,17 +14265,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -14285,17 +14285,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46032.784918171295</v>
+        <v>46038.729075694442</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -14305,12 +14305,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="str">
@@ -14325,12 +14325,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="str">
@@ -14345,12 +14345,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -14365,12 +14365,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -14399,14 +14399,14 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -14421,12 +14421,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -14447,12 +14447,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -14469,10 +14469,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -14489,10 +14489,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -14509,10 +14509,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -14529,10 +14529,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -14549,10 +14549,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14569,10 +14569,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14589,10 +14589,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14609,10 +14609,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14629,10 +14629,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14649,10 +14649,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14669,10 +14669,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14689,10 +14689,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14709,10 +14709,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14729,10 +14729,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14749,10 +14749,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14769,10 +14769,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14789,10 +14789,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14809,10 +14809,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15642,32 +15642,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="1" priority="1">
